--- a/output/Transitions Rule/facility_data/transition_rule_facility_demographics_5mi.xlsx
+++ b/output/Transitions Rule/facility_data/transition_rule_facility_demographics_5mi.xlsx
@@ -591,10 +591,10 @@
         <v>12.9274906797582</v>
       </c>
       <c r="R2" t="n">
-        <v>40</v>
+        <v>42.0512820512821</v>
       </c>
       <c r="S2" t="n">
-        <v>0.492307692307692</v>
+        <v>0.471794871794872</v>
       </c>
     </row>
     <row r="3">
@@ -650,10 +650,10 @@
         <v>11.1294509931195</v>
       </c>
       <c r="R3" t="n">
-        <v>50</v>
+        <v>46.6666666666667</v>
       </c>
       <c r="S3" t="n">
-        <v>0.566666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -707,10 +707,10 @@
         <v>6.06202061612871</v>
       </c>
       <c r="R4" t="n">
-        <v>37.9611650485437</v>
+        <v>30.2912621359223</v>
       </c>
       <c r="S4" t="n">
-        <v>0.440291262135922</v>
+        <v>0.399514563106796</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         <v>12.0943532838632</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>29.8780487804878</v>
       </c>
       <c r="S5" t="n">
-        <v>0.479878048780488</v>
+        <v>0.347560975609756</v>
       </c>
     </row>
     <row r="6">
@@ -823,10 +823,10 @@
         <v>11.7969216170977</v>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>20.6060606060606</v>
       </c>
       <c r="S6" t="n">
-        <v>0.364242424242424</v>
+        <v>0.301212121212121</v>
       </c>
     </row>
     <row r="7">
@@ -880,10 +880,10 @@
         <v>3.26505024426427</v>
       </c>
       <c r="R7" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S7" t="n">
-        <v>0.335</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -998,10 +998,10 @@
         <v>7.22680275103533</v>
       </c>
       <c r="R9" t="n">
-        <v>88.8235294117647</v>
+        <v>61.1764705882353</v>
       </c>
       <c r="S9" t="n">
-        <v>0.517647058823529</v>
+        <v>0.405882352941176</v>
       </c>
     </row>
     <row r="10">
@@ -1057,10 +1057,10 @@
         <v>3.24084657418216</v>
       </c>
       <c r="R10" t="n">
-        <v>115.714285714286</v>
+        <v>61.4285714285714</v>
       </c>
       <c r="S10" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11">
@@ -1116,10 +1116,10 @@
         <v>12.5620748615726</v>
       </c>
       <c r="R11" t="n">
-        <v>46.8627450980392</v>
+        <v>50</v>
       </c>
       <c r="S11" t="n">
-        <v>0.398039215686275</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
@@ -1173,10 +1173,10 @@
         <v>23.8404653935191</v>
       </c>
       <c r="R12" t="n">
-        <v>40</v>
+        <v>33.8095238095238</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5</v>
+        <v>0.414285714285714</v>
       </c>
     </row>
     <row r="13">
@@ -1233,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="S13" t="n">
-        <v>0.367857142857143</v>
+        <v>0.314285714285714</v>
       </c>
     </row>
     <row r="14">
@@ -1289,10 +1289,10 @@
         <v>2.65422327250218</v>
       </c>
       <c r="R14" t="n">
-        <v>20</v>
+        <v>19.047619047619</v>
       </c>
       <c r="S14" t="n">
-        <v>0.20952380952381</v>
+        <v>0.19047619047619</v>
       </c>
     </row>
     <row r="15">
@@ -1349,7 +1349,7 @@
         <v>30</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
